--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlv\Google Drive\Studies\6th Semester\Industrial Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlv\Google Drive\Studies\6th Semester\Industrial Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>Dvir</t>
   </si>
   <si>
-    <t>Read about C# snippet taking</t>
-  </si>
-  <si>
     <t>CodeProject - http://www.codeproject.com/Articles/485883/Create-your-own-Snipping-Tool</t>
   </si>
   <si>
@@ -90,14 +87,25 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Read about C# snapshot taking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -121,12 +129,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,126 +500,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="115.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>